--- a/biology/Zoologie/Inola_daviesae/Inola_daviesae.xlsx
+++ b/biology/Zoologie/Inola_daviesae/Inola_daviesae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inola daviesae est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inola daviesae est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre dans les monts McIlwraith[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre dans les monts McIlwraith.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 4,3 mm de long sur 2,7 mm et l'abdomen 5,9 mm de long sur 1,7 mm et la carapace de la femelle paratype 3,9 mm de long sur 3,4 mm et l'abdomen 6,9 mm de long sur 4,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 4,3 mm de long sur 2,7 mm et l'abdomen 5,9 mm de long sur 1,7 mm et la carapace de la femelle paratype 3,9 mm de long sur 3,4 mm et l'abdomen 6,9 mm de long sur 4,7 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Valerie Todd Davies[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Valerie Todd Davies.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Tio &amp; Humphrey, 2010 : Description of a new species of Inola Davies (Araneae: Pisauridae), the male of I. subtilis Davies and notes on their chromosomes. Proceedings of the Linnean Society of New South Wales, vol. 131, p. 37-42.</t>
         </is>
